--- a/test_srg/zebrafish_addon_50.xlsx
+++ b/test_srg/zebrafish_addon_50.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -445,7 +445,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <f>HYPERLINK("https://pubmed.ncbi.nlm.nih.gov/28738802")</f>
+        <f>HYPERLINK("https://pubmed.ncbi.nlm.nih.gov/21483806")</f>
         <v/>
       </c>
     </row>
@@ -454,115 +454,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <f>HYPERLINK("https://pubmed.ncbi.nlm.nih.gov/25469681")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <f>HYPERLINK("https://pubmed.ncbi.nlm.nih.gov/11849240")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5">
-        <f>HYPERLINK("https://pubmed.ncbi.nlm.nih.gov/30297989")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6">
-        <f>HYPERLINK("https://pubmed.ncbi.nlm.nih.gov/31773208")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7">
-        <f>HYPERLINK("https://pubmed.ncbi.nlm.nih.gov/31896750")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8">
-        <f>HYPERLINK("https://pubmed.ncbi.nlm.nih.gov/21483806")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9">
-        <f>HYPERLINK("https://pubmed.ncbi.nlm.nih.gov/32257095")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10">
-        <f>HYPERLINK("https://pubmed.ncbi.nlm.nih.gov/22342721")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11">
-        <f>HYPERLINK("https://pubmed.ncbi.nlm.nih.gov/26596841")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12">
-        <f>HYPERLINK("https://pubmed.ncbi.nlm.nih.gov/28674520")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13">
-        <f>HYPERLINK("https://pubmed.ncbi.nlm.nih.gov/25976364")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14">
-        <f>HYPERLINK("https://pubmed.ncbi.nlm.nih.gov/31134319")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15">
-        <f>HYPERLINK("https://pubmed.ncbi.nlm.nih.gov/23221344")</f>
+        <f>HYPERLINK("https://pubmed.ncbi.nlm.nih.gov/28738802")</f>
         <v/>
       </c>
     </row>
